--- a/Working/HW_2_working/HW2_BoxModel_manual/starter_code/my_list_output.xlsx
+++ b/Working/HW_2_working/HW2_BoxModel_manual/starter_code/my_list_output.xlsx
@@ -1,19 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tento\Documents\GW_Modeling\homework-akahler03\Working\HW_2_working\HW2_BoxModel_manual\starter_code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B088F45-4C9D-4991-AE79-ECF2B2EFA216}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EADDADE2-03E7-40A8-8815-3C960D3C00DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{46BA6FC5-D008-4A6E-82BB-28E804F2E18B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{46BA6FC5-D008-4A6E-82BB-28E804F2E18B}"/>
   </bookViews>
   <sheets>
     <sheet name="Homogeneous" sheetId="1" r:id="rId1"/>
+    <sheet name="Hetero xflow" sheetId="2" r:id="rId2"/>
+    <sheet name="Hetero box" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -426,7 +428,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3461B78-B81A-46A2-9454-80445468254A}">
   <dimension ref="A1:Z56"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
@@ -2576,4 +2578,4188 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F2C5014-BF9F-4F3E-8EEC-7CFCA714AE0F}">
+  <dimension ref="A1:Z26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L35" sqref="L35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="B1">
+        <v>1</v>
+      </c>
+      <c r="C1">
+        <v>2</v>
+      </c>
+      <c r="D1">
+        <v>3</v>
+      </c>
+      <c r="E1">
+        <v>4</v>
+      </c>
+      <c r="F1">
+        <v>5</v>
+      </c>
+      <c r="G1">
+        <v>6</v>
+      </c>
+      <c r="H1">
+        <v>7</v>
+      </c>
+      <c r="I1">
+        <v>8</v>
+      </c>
+      <c r="J1">
+        <v>9</v>
+      </c>
+      <c r="K1">
+        <v>10</v>
+      </c>
+      <c r="L1">
+        <v>11</v>
+      </c>
+      <c r="M1">
+        <v>12</v>
+      </c>
+      <c r="N1">
+        <v>13</v>
+      </c>
+      <c r="O1">
+        <v>14</v>
+      </c>
+      <c r="P1">
+        <v>15</v>
+      </c>
+      <c r="Q1">
+        <v>16</v>
+      </c>
+      <c r="R1">
+        <v>17</v>
+      </c>
+      <c r="S1">
+        <v>18</v>
+      </c>
+      <c r="T1">
+        <v>19</v>
+      </c>
+      <c r="U1">
+        <v>20</v>
+      </c>
+      <c r="V1">
+        <v>21</v>
+      </c>
+      <c r="W1">
+        <v>22</v>
+      </c>
+      <c r="X1">
+        <v>23</v>
+      </c>
+      <c r="Y1">
+        <v>24</v>
+      </c>
+      <c r="Z1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>15</v>
+      </c>
+      <c r="C2">
+        <v>14.79</v>
+      </c>
+      <c r="D2">
+        <v>14.58</v>
+      </c>
+      <c r="E2">
+        <v>14.38</v>
+      </c>
+      <c r="F2">
+        <v>14.17</v>
+      </c>
+      <c r="G2">
+        <v>13.96</v>
+      </c>
+      <c r="H2">
+        <v>13.75</v>
+      </c>
+      <c r="I2">
+        <v>13.54</v>
+      </c>
+      <c r="J2">
+        <v>13.33</v>
+      </c>
+      <c r="K2">
+        <v>13.12</v>
+      </c>
+      <c r="L2">
+        <v>12.92</v>
+      </c>
+      <c r="M2">
+        <v>12.71</v>
+      </c>
+      <c r="N2">
+        <v>12.5</v>
+      </c>
+      <c r="O2">
+        <v>12.29</v>
+      </c>
+      <c r="P2">
+        <v>12.08</v>
+      </c>
+      <c r="Q2">
+        <v>11.88</v>
+      </c>
+      <c r="R2">
+        <v>11.67</v>
+      </c>
+      <c r="S2">
+        <v>11.46</v>
+      </c>
+      <c r="T2">
+        <v>11.25</v>
+      </c>
+      <c r="U2">
+        <v>11.04</v>
+      </c>
+      <c r="V2">
+        <v>10.83</v>
+      </c>
+      <c r="W2">
+        <v>10.62</v>
+      </c>
+      <c r="X2">
+        <v>10.42</v>
+      </c>
+      <c r="Y2">
+        <v>10.210000000000001</v>
+      </c>
+      <c r="Z2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>15</v>
+      </c>
+      <c r="C3">
+        <v>14.79</v>
+      </c>
+      <c r="D3">
+        <v>14.58</v>
+      </c>
+      <c r="E3">
+        <v>14.38</v>
+      </c>
+      <c r="F3">
+        <v>14.17</v>
+      </c>
+      <c r="G3">
+        <v>13.96</v>
+      </c>
+      <c r="H3">
+        <v>13.75</v>
+      </c>
+      <c r="I3">
+        <v>13.54</v>
+      </c>
+      <c r="J3">
+        <v>13.33</v>
+      </c>
+      <c r="K3">
+        <v>13.12</v>
+      </c>
+      <c r="L3">
+        <v>12.92</v>
+      </c>
+      <c r="M3">
+        <v>12.71</v>
+      </c>
+      <c r="N3">
+        <v>12.5</v>
+      </c>
+      <c r="O3">
+        <v>12.29</v>
+      </c>
+      <c r="P3">
+        <v>12.08</v>
+      </c>
+      <c r="Q3">
+        <v>11.88</v>
+      </c>
+      <c r="R3">
+        <v>11.67</v>
+      </c>
+      <c r="S3">
+        <v>11.46</v>
+      </c>
+      <c r="T3">
+        <v>11.25</v>
+      </c>
+      <c r="U3">
+        <v>11.04</v>
+      </c>
+      <c r="V3">
+        <v>10.83</v>
+      </c>
+      <c r="W3">
+        <v>10.62</v>
+      </c>
+      <c r="X3">
+        <v>10.42</v>
+      </c>
+      <c r="Y3">
+        <v>10.210000000000001</v>
+      </c>
+      <c r="Z3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>15</v>
+      </c>
+      <c r="C4">
+        <v>14.79</v>
+      </c>
+      <c r="D4">
+        <v>14.58</v>
+      </c>
+      <c r="E4">
+        <v>14.38</v>
+      </c>
+      <c r="F4">
+        <v>14.17</v>
+      </c>
+      <c r="G4">
+        <v>13.96</v>
+      </c>
+      <c r="H4">
+        <v>13.75</v>
+      </c>
+      <c r="I4">
+        <v>13.54</v>
+      </c>
+      <c r="J4">
+        <v>13.33</v>
+      </c>
+      <c r="K4">
+        <v>13.12</v>
+      </c>
+      <c r="L4">
+        <v>12.92</v>
+      </c>
+      <c r="M4">
+        <v>12.71</v>
+      </c>
+      <c r="N4">
+        <v>12.5</v>
+      </c>
+      <c r="O4">
+        <v>12.29</v>
+      </c>
+      <c r="P4">
+        <v>12.08</v>
+      </c>
+      <c r="Q4">
+        <v>11.88</v>
+      </c>
+      <c r="R4">
+        <v>11.67</v>
+      </c>
+      <c r="S4">
+        <v>11.46</v>
+      </c>
+      <c r="T4">
+        <v>11.25</v>
+      </c>
+      <c r="U4">
+        <v>11.04</v>
+      </c>
+      <c r="V4">
+        <v>10.83</v>
+      </c>
+      <c r="W4">
+        <v>10.62</v>
+      </c>
+      <c r="X4">
+        <v>10.42</v>
+      </c>
+      <c r="Y4">
+        <v>10.210000000000001</v>
+      </c>
+      <c r="Z4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>15</v>
+      </c>
+      <c r="C5">
+        <v>14.79</v>
+      </c>
+      <c r="D5">
+        <v>14.58</v>
+      </c>
+      <c r="E5">
+        <v>14.38</v>
+      </c>
+      <c r="F5">
+        <v>14.17</v>
+      </c>
+      <c r="G5">
+        <v>13.96</v>
+      </c>
+      <c r="H5">
+        <v>13.75</v>
+      </c>
+      <c r="I5">
+        <v>13.54</v>
+      </c>
+      <c r="J5">
+        <v>13.33</v>
+      </c>
+      <c r="K5">
+        <v>13.12</v>
+      </c>
+      <c r="L5">
+        <v>12.92</v>
+      </c>
+      <c r="M5">
+        <v>12.71</v>
+      </c>
+      <c r="N5">
+        <v>12.5</v>
+      </c>
+      <c r="O5">
+        <v>12.29</v>
+      </c>
+      <c r="P5">
+        <v>12.08</v>
+      </c>
+      <c r="Q5">
+        <v>11.88</v>
+      </c>
+      <c r="R5">
+        <v>11.67</v>
+      </c>
+      <c r="S5">
+        <v>11.46</v>
+      </c>
+      <c r="T5">
+        <v>11.25</v>
+      </c>
+      <c r="U5">
+        <v>11.04</v>
+      </c>
+      <c r="V5">
+        <v>10.83</v>
+      </c>
+      <c r="W5">
+        <v>10.62</v>
+      </c>
+      <c r="X5">
+        <v>10.42</v>
+      </c>
+      <c r="Y5">
+        <v>10.210000000000001</v>
+      </c>
+      <c r="Z5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>15</v>
+      </c>
+      <c r="C6">
+        <v>14.79</v>
+      </c>
+      <c r="D6">
+        <v>14.58</v>
+      </c>
+      <c r="E6">
+        <v>14.38</v>
+      </c>
+      <c r="F6">
+        <v>14.17</v>
+      </c>
+      <c r="G6">
+        <v>13.96</v>
+      </c>
+      <c r="H6">
+        <v>13.75</v>
+      </c>
+      <c r="I6">
+        <v>13.54</v>
+      </c>
+      <c r="J6">
+        <v>13.33</v>
+      </c>
+      <c r="K6">
+        <v>13.12</v>
+      </c>
+      <c r="L6">
+        <v>12.92</v>
+      </c>
+      <c r="M6">
+        <v>12.71</v>
+      </c>
+      <c r="N6">
+        <v>12.5</v>
+      </c>
+      <c r="O6">
+        <v>12.29</v>
+      </c>
+      <c r="P6">
+        <v>12.08</v>
+      </c>
+      <c r="Q6">
+        <v>11.88</v>
+      </c>
+      <c r="R6">
+        <v>11.67</v>
+      </c>
+      <c r="S6">
+        <v>11.46</v>
+      </c>
+      <c r="T6">
+        <v>11.25</v>
+      </c>
+      <c r="U6">
+        <v>11.04</v>
+      </c>
+      <c r="V6">
+        <v>10.83</v>
+      </c>
+      <c r="W6">
+        <v>10.62</v>
+      </c>
+      <c r="X6">
+        <v>10.42</v>
+      </c>
+      <c r="Y6">
+        <v>10.210000000000001</v>
+      </c>
+      <c r="Z6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>15</v>
+      </c>
+      <c r="C7">
+        <v>14.79</v>
+      </c>
+      <c r="D7">
+        <v>14.58</v>
+      </c>
+      <c r="E7">
+        <v>14.38</v>
+      </c>
+      <c r="F7">
+        <v>14.17</v>
+      </c>
+      <c r="G7">
+        <v>13.96</v>
+      </c>
+      <c r="H7">
+        <v>13.75</v>
+      </c>
+      <c r="I7">
+        <v>13.54</v>
+      </c>
+      <c r="J7">
+        <v>13.33</v>
+      </c>
+      <c r="K7">
+        <v>13.12</v>
+      </c>
+      <c r="L7">
+        <v>12.92</v>
+      </c>
+      <c r="M7">
+        <v>12.71</v>
+      </c>
+      <c r="N7">
+        <v>12.5</v>
+      </c>
+      <c r="O7">
+        <v>12.29</v>
+      </c>
+      <c r="P7">
+        <v>12.08</v>
+      </c>
+      <c r="Q7">
+        <v>11.88</v>
+      </c>
+      <c r="R7">
+        <v>11.67</v>
+      </c>
+      <c r="S7">
+        <v>11.46</v>
+      </c>
+      <c r="T7">
+        <v>11.25</v>
+      </c>
+      <c r="U7">
+        <v>11.04</v>
+      </c>
+      <c r="V7">
+        <v>10.83</v>
+      </c>
+      <c r="W7">
+        <v>10.62</v>
+      </c>
+      <c r="X7">
+        <v>10.42</v>
+      </c>
+      <c r="Y7">
+        <v>10.210000000000001</v>
+      </c>
+      <c r="Z7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>15</v>
+      </c>
+      <c r="C8">
+        <v>14.79</v>
+      </c>
+      <c r="D8">
+        <v>14.58</v>
+      </c>
+      <c r="E8">
+        <v>14.38</v>
+      </c>
+      <c r="F8">
+        <v>14.17</v>
+      </c>
+      <c r="G8">
+        <v>13.96</v>
+      </c>
+      <c r="H8">
+        <v>13.75</v>
+      </c>
+      <c r="I8">
+        <v>13.54</v>
+      </c>
+      <c r="J8">
+        <v>13.33</v>
+      </c>
+      <c r="K8">
+        <v>13.12</v>
+      </c>
+      <c r="L8">
+        <v>12.92</v>
+      </c>
+      <c r="M8">
+        <v>12.71</v>
+      </c>
+      <c r="N8">
+        <v>12.5</v>
+      </c>
+      <c r="O8">
+        <v>12.29</v>
+      </c>
+      <c r="P8">
+        <v>12.08</v>
+      </c>
+      <c r="Q8">
+        <v>11.88</v>
+      </c>
+      <c r="R8">
+        <v>11.67</v>
+      </c>
+      <c r="S8">
+        <v>11.46</v>
+      </c>
+      <c r="T8">
+        <v>11.25</v>
+      </c>
+      <c r="U8">
+        <v>11.04</v>
+      </c>
+      <c r="V8">
+        <v>10.83</v>
+      </c>
+      <c r="W8">
+        <v>10.62</v>
+      </c>
+      <c r="X8">
+        <v>10.42</v>
+      </c>
+      <c r="Y8">
+        <v>10.210000000000001</v>
+      </c>
+      <c r="Z8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>15</v>
+      </c>
+      <c r="C9">
+        <v>14.79</v>
+      </c>
+      <c r="D9">
+        <v>14.58</v>
+      </c>
+      <c r="E9">
+        <v>14.38</v>
+      </c>
+      <c r="F9">
+        <v>14.17</v>
+      </c>
+      <c r="G9">
+        <v>13.96</v>
+      </c>
+      <c r="H9">
+        <v>13.75</v>
+      </c>
+      <c r="I9">
+        <v>13.54</v>
+      </c>
+      <c r="J9">
+        <v>13.33</v>
+      </c>
+      <c r="K9">
+        <v>13.12</v>
+      </c>
+      <c r="L9">
+        <v>12.92</v>
+      </c>
+      <c r="M9">
+        <v>12.71</v>
+      </c>
+      <c r="N9">
+        <v>12.5</v>
+      </c>
+      <c r="O9">
+        <v>12.29</v>
+      </c>
+      <c r="P9">
+        <v>12.08</v>
+      </c>
+      <c r="Q9">
+        <v>11.88</v>
+      </c>
+      <c r="R9">
+        <v>11.67</v>
+      </c>
+      <c r="S9">
+        <v>11.46</v>
+      </c>
+      <c r="T9">
+        <v>11.25</v>
+      </c>
+      <c r="U9">
+        <v>11.04</v>
+      </c>
+      <c r="V9">
+        <v>10.83</v>
+      </c>
+      <c r="W9">
+        <v>10.62</v>
+      </c>
+      <c r="X9">
+        <v>10.42</v>
+      </c>
+      <c r="Y9">
+        <v>10.210000000000001</v>
+      </c>
+      <c r="Z9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>15</v>
+      </c>
+      <c r="C10">
+        <v>14.79</v>
+      </c>
+      <c r="D10">
+        <v>14.58</v>
+      </c>
+      <c r="E10">
+        <v>14.38</v>
+      </c>
+      <c r="F10">
+        <v>14.17</v>
+      </c>
+      <c r="G10">
+        <v>13.96</v>
+      </c>
+      <c r="H10">
+        <v>13.75</v>
+      </c>
+      <c r="I10">
+        <v>13.54</v>
+      </c>
+      <c r="J10">
+        <v>13.33</v>
+      </c>
+      <c r="K10">
+        <v>13.12</v>
+      </c>
+      <c r="L10">
+        <v>12.92</v>
+      </c>
+      <c r="M10">
+        <v>12.71</v>
+      </c>
+      <c r="N10">
+        <v>12.5</v>
+      </c>
+      <c r="O10">
+        <v>12.29</v>
+      </c>
+      <c r="P10">
+        <v>12.08</v>
+      </c>
+      <c r="Q10">
+        <v>11.88</v>
+      </c>
+      <c r="R10">
+        <v>11.67</v>
+      </c>
+      <c r="S10">
+        <v>11.46</v>
+      </c>
+      <c r="T10">
+        <v>11.25</v>
+      </c>
+      <c r="U10">
+        <v>11.04</v>
+      </c>
+      <c r="V10">
+        <v>10.83</v>
+      </c>
+      <c r="W10">
+        <v>10.62</v>
+      </c>
+      <c r="X10">
+        <v>10.42</v>
+      </c>
+      <c r="Y10">
+        <v>10.210000000000001</v>
+      </c>
+      <c r="Z10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>15</v>
+      </c>
+      <c r="C11">
+        <v>14.79</v>
+      </c>
+      <c r="D11">
+        <v>14.58</v>
+      </c>
+      <c r="E11">
+        <v>14.38</v>
+      </c>
+      <c r="F11">
+        <v>14.17</v>
+      </c>
+      <c r="G11">
+        <v>13.96</v>
+      </c>
+      <c r="H11">
+        <v>13.75</v>
+      </c>
+      <c r="I11">
+        <v>13.54</v>
+      </c>
+      <c r="J11">
+        <v>13.33</v>
+      </c>
+      <c r="K11">
+        <v>13.12</v>
+      </c>
+      <c r="L11">
+        <v>12.92</v>
+      </c>
+      <c r="M11">
+        <v>12.71</v>
+      </c>
+      <c r="N11">
+        <v>12.5</v>
+      </c>
+      <c r="O11">
+        <v>12.29</v>
+      </c>
+      <c r="P11">
+        <v>12.08</v>
+      </c>
+      <c r="Q11">
+        <v>11.88</v>
+      </c>
+      <c r="R11">
+        <v>11.67</v>
+      </c>
+      <c r="S11">
+        <v>11.46</v>
+      </c>
+      <c r="T11">
+        <v>11.25</v>
+      </c>
+      <c r="U11">
+        <v>11.04</v>
+      </c>
+      <c r="V11">
+        <v>10.83</v>
+      </c>
+      <c r="W11">
+        <v>10.62</v>
+      </c>
+      <c r="X11">
+        <v>10.42</v>
+      </c>
+      <c r="Y11">
+        <v>10.210000000000001</v>
+      </c>
+      <c r="Z11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>15</v>
+      </c>
+      <c r="C12">
+        <v>14.79</v>
+      </c>
+      <c r="D12">
+        <v>14.58</v>
+      </c>
+      <c r="E12">
+        <v>14.38</v>
+      </c>
+      <c r="F12">
+        <v>14.17</v>
+      </c>
+      <c r="G12">
+        <v>13.96</v>
+      </c>
+      <c r="H12">
+        <v>13.75</v>
+      </c>
+      <c r="I12">
+        <v>13.54</v>
+      </c>
+      <c r="J12">
+        <v>13.33</v>
+      </c>
+      <c r="K12">
+        <v>13.12</v>
+      </c>
+      <c r="L12">
+        <v>12.92</v>
+      </c>
+      <c r="M12">
+        <v>12.71</v>
+      </c>
+      <c r="N12">
+        <v>12.5</v>
+      </c>
+      <c r="O12">
+        <v>12.29</v>
+      </c>
+      <c r="P12">
+        <v>12.08</v>
+      </c>
+      <c r="Q12">
+        <v>11.88</v>
+      </c>
+      <c r="R12">
+        <v>11.67</v>
+      </c>
+      <c r="S12">
+        <v>11.46</v>
+      </c>
+      <c r="T12">
+        <v>11.25</v>
+      </c>
+      <c r="U12">
+        <v>11.04</v>
+      </c>
+      <c r="V12">
+        <v>10.83</v>
+      </c>
+      <c r="W12">
+        <v>10.62</v>
+      </c>
+      <c r="X12">
+        <v>10.42</v>
+      </c>
+      <c r="Y12">
+        <v>10.210000000000001</v>
+      </c>
+      <c r="Z12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>15</v>
+      </c>
+      <c r="C13">
+        <v>14.79</v>
+      </c>
+      <c r="D13">
+        <v>14.58</v>
+      </c>
+      <c r="E13">
+        <v>14.38</v>
+      </c>
+      <c r="F13">
+        <v>14.17</v>
+      </c>
+      <c r="G13">
+        <v>13.96</v>
+      </c>
+      <c r="H13">
+        <v>13.75</v>
+      </c>
+      <c r="I13">
+        <v>13.54</v>
+      </c>
+      <c r="J13">
+        <v>13.33</v>
+      </c>
+      <c r="K13">
+        <v>13.12</v>
+      </c>
+      <c r="L13">
+        <v>12.92</v>
+      </c>
+      <c r="M13">
+        <v>12.71</v>
+      </c>
+      <c r="N13">
+        <v>12.5</v>
+      </c>
+      <c r="O13">
+        <v>12.29</v>
+      </c>
+      <c r="P13">
+        <v>12.08</v>
+      </c>
+      <c r="Q13">
+        <v>11.88</v>
+      </c>
+      <c r="R13">
+        <v>11.67</v>
+      </c>
+      <c r="S13">
+        <v>11.46</v>
+      </c>
+      <c r="T13">
+        <v>11.25</v>
+      </c>
+      <c r="U13">
+        <v>11.04</v>
+      </c>
+      <c r="V13">
+        <v>10.83</v>
+      </c>
+      <c r="W13">
+        <v>10.62</v>
+      </c>
+      <c r="X13">
+        <v>10.42</v>
+      </c>
+      <c r="Y13">
+        <v>10.210000000000001</v>
+      </c>
+      <c r="Z13">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>15</v>
+      </c>
+      <c r="C14">
+        <v>14.79</v>
+      </c>
+      <c r="D14">
+        <v>14.58</v>
+      </c>
+      <c r="E14">
+        <v>14.38</v>
+      </c>
+      <c r="F14">
+        <v>14.17</v>
+      </c>
+      <c r="G14">
+        <v>13.96</v>
+      </c>
+      <c r="H14">
+        <v>13.75</v>
+      </c>
+      <c r="I14">
+        <v>13.54</v>
+      </c>
+      <c r="J14">
+        <v>13.33</v>
+      </c>
+      <c r="K14">
+        <v>13.12</v>
+      </c>
+      <c r="L14">
+        <v>12.92</v>
+      </c>
+      <c r="M14">
+        <v>12.71</v>
+      </c>
+      <c r="N14">
+        <v>12.5</v>
+      </c>
+      <c r="O14">
+        <v>12.29</v>
+      </c>
+      <c r="P14">
+        <v>12.08</v>
+      </c>
+      <c r="Q14">
+        <v>11.88</v>
+      </c>
+      <c r="R14">
+        <v>11.67</v>
+      </c>
+      <c r="S14">
+        <v>11.46</v>
+      </c>
+      <c r="T14">
+        <v>11.25</v>
+      </c>
+      <c r="U14">
+        <v>11.04</v>
+      </c>
+      <c r="V14">
+        <v>10.83</v>
+      </c>
+      <c r="W14">
+        <v>10.62</v>
+      </c>
+      <c r="X14">
+        <v>10.42</v>
+      </c>
+      <c r="Y14">
+        <v>10.210000000000001</v>
+      </c>
+      <c r="Z14">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>15</v>
+      </c>
+      <c r="C15">
+        <v>14.79</v>
+      </c>
+      <c r="D15">
+        <v>14.58</v>
+      </c>
+      <c r="E15">
+        <v>14.38</v>
+      </c>
+      <c r="F15">
+        <v>14.17</v>
+      </c>
+      <c r="G15">
+        <v>13.96</v>
+      </c>
+      <c r="H15">
+        <v>13.75</v>
+      </c>
+      <c r="I15">
+        <v>13.54</v>
+      </c>
+      <c r="J15">
+        <v>13.33</v>
+      </c>
+      <c r="K15">
+        <v>13.12</v>
+      </c>
+      <c r="L15">
+        <v>12.92</v>
+      </c>
+      <c r="M15">
+        <v>12.71</v>
+      </c>
+      <c r="N15">
+        <v>12.5</v>
+      </c>
+      <c r="O15">
+        <v>12.29</v>
+      </c>
+      <c r="P15">
+        <v>12.08</v>
+      </c>
+      <c r="Q15">
+        <v>11.88</v>
+      </c>
+      <c r="R15">
+        <v>11.67</v>
+      </c>
+      <c r="S15">
+        <v>11.46</v>
+      </c>
+      <c r="T15">
+        <v>11.25</v>
+      </c>
+      <c r="U15">
+        <v>11.04</v>
+      </c>
+      <c r="V15">
+        <v>10.83</v>
+      </c>
+      <c r="W15">
+        <v>10.62</v>
+      </c>
+      <c r="X15">
+        <v>10.42</v>
+      </c>
+      <c r="Y15">
+        <v>10.210000000000001</v>
+      </c>
+      <c r="Z15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>15</v>
+      </c>
+      <c r="C16">
+        <v>14.79</v>
+      </c>
+      <c r="D16">
+        <v>14.58</v>
+      </c>
+      <c r="E16">
+        <v>14.38</v>
+      </c>
+      <c r="F16">
+        <v>14.17</v>
+      </c>
+      <c r="G16">
+        <v>13.96</v>
+      </c>
+      <c r="H16">
+        <v>13.75</v>
+      </c>
+      <c r="I16">
+        <v>13.54</v>
+      </c>
+      <c r="J16">
+        <v>13.33</v>
+      </c>
+      <c r="K16">
+        <v>13.12</v>
+      </c>
+      <c r="L16">
+        <v>12.92</v>
+      </c>
+      <c r="M16">
+        <v>12.71</v>
+      </c>
+      <c r="N16">
+        <v>12.5</v>
+      </c>
+      <c r="O16">
+        <v>12.29</v>
+      </c>
+      <c r="P16">
+        <v>12.08</v>
+      </c>
+      <c r="Q16">
+        <v>11.88</v>
+      </c>
+      <c r="R16">
+        <v>11.67</v>
+      </c>
+      <c r="S16">
+        <v>11.46</v>
+      </c>
+      <c r="T16">
+        <v>11.25</v>
+      </c>
+      <c r="U16">
+        <v>11.04</v>
+      </c>
+      <c r="V16">
+        <v>10.83</v>
+      </c>
+      <c r="W16">
+        <v>10.62</v>
+      </c>
+      <c r="X16">
+        <v>10.42</v>
+      </c>
+      <c r="Y16">
+        <v>10.210000000000001</v>
+      </c>
+      <c r="Z16">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>15</v>
+      </c>
+      <c r="C17">
+        <v>14.79</v>
+      </c>
+      <c r="D17">
+        <v>14.58</v>
+      </c>
+      <c r="E17">
+        <v>14.38</v>
+      </c>
+      <c r="F17">
+        <v>14.17</v>
+      </c>
+      <c r="G17">
+        <v>13.96</v>
+      </c>
+      <c r="H17">
+        <v>13.75</v>
+      </c>
+      <c r="I17">
+        <v>13.54</v>
+      </c>
+      <c r="J17">
+        <v>13.33</v>
+      </c>
+      <c r="K17">
+        <v>13.12</v>
+      </c>
+      <c r="L17">
+        <v>12.92</v>
+      </c>
+      <c r="M17">
+        <v>12.71</v>
+      </c>
+      <c r="N17">
+        <v>12.5</v>
+      </c>
+      <c r="O17">
+        <v>12.29</v>
+      </c>
+      <c r="P17">
+        <v>12.08</v>
+      </c>
+      <c r="Q17">
+        <v>11.88</v>
+      </c>
+      <c r="R17">
+        <v>11.67</v>
+      </c>
+      <c r="S17">
+        <v>11.46</v>
+      </c>
+      <c r="T17">
+        <v>11.25</v>
+      </c>
+      <c r="U17">
+        <v>11.04</v>
+      </c>
+      <c r="V17">
+        <v>10.83</v>
+      </c>
+      <c r="W17">
+        <v>10.62</v>
+      </c>
+      <c r="X17">
+        <v>10.42</v>
+      </c>
+      <c r="Y17">
+        <v>10.210000000000001</v>
+      </c>
+      <c r="Z17">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>15</v>
+      </c>
+      <c r="C18">
+        <v>14.79</v>
+      </c>
+      <c r="D18">
+        <v>14.58</v>
+      </c>
+      <c r="E18">
+        <v>14.38</v>
+      </c>
+      <c r="F18">
+        <v>14.17</v>
+      </c>
+      <c r="G18">
+        <v>13.96</v>
+      </c>
+      <c r="H18">
+        <v>13.75</v>
+      </c>
+      <c r="I18">
+        <v>13.54</v>
+      </c>
+      <c r="J18">
+        <v>13.33</v>
+      </c>
+      <c r="K18">
+        <v>13.12</v>
+      </c>
+      <c r="L18">
+        <v>12.92</v>
+      </c>
+      <c r="M18">
+        <v>12.71</v>
+      </c>
+      <c r="N18">
+        <v>12.5</v>
+      </c>
+      <c r="O18">
+        <v>12.29</v>
+      </c>
+      <c r="P18">
+        <v>12.08</v>
+      </c>
+      <c r="Q18">
+        <v>11.88</v>
+      </c>
+      <c r="R18">
+        <v>11.67</v>
+      </c>
+      <c r="S18">
+        <v>11.46</v>
+      </c>
+      <c r="T18">
+        <v>11.25</v>
+      </c>
+      <c r="U18">
+        <v>11.04</v>
+      </c>
+      <c r="V18">
+        <v>10.83</v>
+      </c>
+      <c r="W18">
+        <v>10.62</v>
+      </c>
+      <c r="X18">
+        <v>10.42</v>
+      </c>
+      <c r="Y18">
+        <v>10.210000000000001</v>
+      </c>
+      <c r="Z18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>15</v>
+      </c>
+      <c r="C19">
+        <v>14.79</v>
+      </c>
+      <c r="D19">
+        <v>14.58</v>
+      </c>
+      <c r="E19">
+        <v>14.38</v>
+      </c>
+      <c r="F19">
+        <v>14.17</v>
+      </c>
+      <c r="G19">
+        <v>13.96</v>
+      </c>
+      <c r="H19">
+        <v>13.75</v>
+      </c>
+      <c r="I19">
+        <v>13.54</v>
+      </c>
+      <c r="J19">
+        <v>13.33</v>
+      </c>
+      <c r="K19">
+        <v>13.12</v>
+      </c>
+      <c r="L19">
+        <v>12.92</v>
+      </c>
+      <c r="M19">
+        <v>12.71</v>
+      </c>
+      <c r="N19">
+        <v>12.5</v>
+      </c>
+      <c r="O19">
+        <v>12.29</v>
+      </c>
+      <c r="P19">
+        <v>12.08</v>
+      </c>
+      <c r="Q19">
+        <v>11.88</v>
+      </c>
+      <c r="R19">
+        <v>11.67</v>
+      </c>
+      <c r="S19">
+        <v>11.46</v>
+      </c>
+      <c r="T19">
+        <v>11.25</v>
+      </c>
+      <c r="U19">
+        <v>11.04</v>
+      </c>
+      <c r="V19">
+        <v>10.83</v>
+      </c>
+      <c r="W19">
+        <v>10.62</v>
+      </c>
+      <c r="X19">
+        <v>10.42</v>
+      </c>
+      <c r="Y19">
+        <v>10.210000000000001</v>
+      </c>
+      <c r="Z19">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>15</v>
+      </c>
+      <c r="C20">
+        <v>14.79</v>
+      </c>
+      <c r="D20">
+        <v>14.58</v>
+      </c>
+      <c r="E20">
+        <v>14.38</v>
+      </c>
+      <c r="F20">
+        <v>14.17</v>
+      </c>
+      <c r="G20">
+        <v>13.96</v>
+      </c>
+      <c r="H20">
+        <v>13.75</v>
+      </c>
+      <c r="I20">
+        <v>13.54</v>
+      </c>
+      <c r="J20">
+        <v>13.33</v>
+      </c>
+      <c r="K20">
+        <v>13.12</v>
+      </c>
+      <c r="L20">
+        <v>12.92</v>
+      </c>
+      <c r="M20">
+        <v>12.71</v>
+      </c>
+      <c r="N20">
+        <v>12.5</v>
+      </c>
+      <c r="O20">
+        <v>12.29</v>
+      </c>
+      <c r="P20">
+        <v>12.08</v>
+      </c>
+      <c r="Q20">
+        <v>11.88</v>
+      </c>
+      <c r="R20">
+        <v>11.67</v>
+      </c>
+      <c r="S20">
+        <v>11.46</v>
+      </c>
+      <c r="T20">
+        <v>11.25</v>
+      </c>
+      <c r="U20">
+        <v>11.04</v>
+      </c>
+      <c r="V20">
+        <v>10.83</v>
+      </c>
+      <c r="W20">
+        <v>10.62</v>
+      </c>
+      <c r="X20">
+        <v>10.42</v>
+      </c>
+      <c r="Y20">
+        <v>10.210000000000001</v>
+      </c>
+      <c r="Z20">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>15</v>
+      </c>
+      <c r="C21">
+        <v>14.79</v>
+      </c>
+      <c r="D21">
+        <v>14.58</v>
+      </c>
+      <c r="E21">
+        <v>14.38</v>
+      </c>
+      <c r="F21">
+        <v>14.17</v>
+      </c>
+      <c r="G21">
+        <v>13.96</v>
+      </c>
+      <c r="H21">
+        <v>13.75</v>
+      </c>
+      <c r="I21">
+        <v>13.54</v>
+      </c>
+      <c r="J21">
+        <v>13.33</v>
+      </c>
+      <c r="K21">
+        <v>13.12</v>
+      </c>
+      <c r="L21">
+        <v>12.92</v>
+      </c>
+      <c r="M21">
+        <v>12.71</v>
+      </c>
+      <c r="N21">
+        <v>12.5</v>
+      </c>
+      <c r="O21">
+        <v>12.29</v>
+      </c>
+      <c r="P21">
+        <v>12.08</v>
+      </c>
+      <c r="Q21">
+        <v>11.88</v>
+      </c>
+      <c r="R21">
+        <v>11.67</v>
+      </c>
+      <c r="S21">
+        <v>11.46</v>
+      </c>
+      <c r="T21">
+        <v>11.25</v>
+      </c>
+      <c r="U21">
+        <v>11.04</v>
+      </c>
+      <c r="V21">
+        <v>10.83</v>
+      </c>
+      <c r="W21">
+        <v>10.62</v>
+      </c>
+      <c r="X21">
+        <v>10.42</v>
+      </c>
+      <c r="Y21">
+        <v>10.210000000000001</v>
+      </c>
+      <c r="Z21">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>15</v>
+      </c>
+      <c r="C22">
+        <v>14.79</v>
+      </c>
+      <c r="D22">
+        <v>14.58</v>
+      </c>
+      <c r="E22">
+        <v>14.38</v>
+      </c>
+      <c r="F22">
+        <v>14.17</v>
+      </c>
+      <c r="G22">
+        <v>13.96</v>
+      </c>
+      <c r="H22">
+        <v>13.75</v>
+      </c>
+      <c r="I22">
+        <v>13.54</v>
+      </c>
+      <c r="J22">
+        <v>13.33</v>
+      </c>
+      <c r="K22">
+        <v>13.12</v>
+      </c>
+      <c r="L22">
+        <v>12.92</v>
+      </c>
+      <c r="M22">
+        <v>12.71</v>
+      </c>
+      <c r="N22">
+        <v>12.5</v>
+      </c>
+      <c r="O22">
+        <v>12.29</v>
+      </c>
+      <c r="P22">
+        <v>12.08</v>
+      </c>
+      <c r="Q22">
+        <v>11.88</v>
+      </c>
+      <c r="R22">
+        <v>11.67</v>
+      </c>
+      <c r="S22">
+        <v>11.46</v>
+      </c>
+      <c r="T22">
+        <v>11.25</v>
+      </c>
+      <c r="U22">
+        <v>11.04</v>
+      </c>
+      <c r="V22">
+        <v>10.83</v>
+      </c>
+      <c r="W22">
+        <v>10.62</v>
+      </c>
+      <c r="X22">
+        <v>10.42</v>
+      </c>
+      <c r="Y22">
+        <v>10.210000000000001</v>
+      </c>
+      <c r="Z22">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>15</v>
+      </c>
+      <c r="C23">
+        <v>14.79</v>
+      </c>
+      <c r="D23">
+        <v>14.58</v>
+      </c>
+      <c r="E23">
+        <v>14.38</v>
+      </c>
+      <c r="F23">
+        <v>14.17</v>
+      </c>
+      <c r="G23">
+        <v>13.96</v>
+      </c>
+      <c r="H23">
+        <v>13.75</v>
+      </c>
+      <c r="I23">
+        <v>13.54</v>
+      </c>
+      <c r="J23">
+        <v>13.33</v>
+      </c>
+      <c r="K23">
+        <v>13.12</v>
+      </c>
+      <c r="L23">
+        <v>12.92</v>
+      </c>
+      <c r="M23">
+        <v>12.71</v>
+      </c>
+      <c r="N23">
+        <v>12.5</v>
+      </c>
+      <c r="O23">
+        <v>12.29</v>
+      </c>
+      <c r="P23">
+        <v>12.08</v>
+      </c>
+      <c r="Q23">
+        <v>11.88</v>
+      </c>
+      <c r="R23">
+        <v>11.67</v>
+      </c>
+      <c r="S23">
+        <v>11.46</v>
+      </c>
+      <c r="T23">
+        <v>11.25</v>
+      </c>
+      <c r="U23">
+        <v>11.04</v>
+      </c>
+      <c r="V23">
+        <v>10.83</v>
+      </c>
+      <c r="W23">
+        <v>10.62</v>
+      </c>
+      <c r="X23">
+        <v>10.42</v>
+      </c>
+      <c r="Y23">
+        <v>10.210000000000001</v>
+      </c>
+      <c r="Z23">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <v>15</v>
+      </c>
+      <c r="C24">
+        <v>14.79</v>
+      </c>
+      <c r="D24">
+        <v>14.58</v>
+      </c>
+      <c r="E24">
+        <v>14.38</v>
+      </c>
+      <c r="F24">
+        <v>14.17</v>
+      </c>
+      <c r="G24">
+        <v>13.96</v>
+      </c>
+      <c r="H24">
+        <v>13.75</v>
+      </c>
+      <c r="I24">
+        <v>13.54</v>
+      </c>
+      <c r="J24">
+        <v>13.33</v>
+      </c>
+      <c r="K24">
+        <v>13.12</v>
+      </c>
+      <c r="L24">
+        <v>12.92</v>
+      </c>
+      <c r="M24">
+        <v>12.71</v>
+      </c>
+      <c r="N24">
+        <v>12.5</v>
+      </c>
+      <c r="O24">
+        <v>12.29</v>
+      </c>
+      <c r="P24">
+        <v>12.08</v>
+      </c>
+      <c r="Q24">
+        <v>11.88</v>
+      </c>
+      <c r="R24">
+        <v>11.67</v>
+      </c>
+      <c r="S24">
+        <v>11.46</v>
+      </c>
+      <c r="T24">
+        <v>11.25</v>
+      </c>
+      <c r="U24">
+        <v>11.04</v>
+      </c>
+      <c r="V24">
+        <v>10.83</v>
+      </c>
+      <c r="W24">
+        <v>10.62</v>
+      </c>
+      <c r="X24">
+        <v>10.42</v>
+      </c>
+      <c r="Y24">
+        <v>10.210000000000001</v>
+      </c>
+      <c r="Z24">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <v>15</v>
+      </c>
+      <c r="C25">
+        <v>14.79</v>
+      </c>
+      <c r="D25">
+        <v>14.58</v>
+      </c>
+      <c r="E25">
+        <v>14.38</v>
+      </c>
+      <c r="F25">
+        <v>14.17</v>
+      </c>
+      <c r="G25">
+        <v>13.96</v>
+      </c>
+      <c r="H25">
+        <v>13.75</v>
+      </c>
+      <c r="I25">
+        <v>13.54</v>
+      </c>
+      <c r="J25">
+        <v>13.33</v>
+      </c>
+      <c r="K25">
+        <v>13.12</v>
+      </c>
+      <c r="L25">
+        <v>12.92</v>
+      </c>
+      <c r="M25">
+        <v>12.71</v>
+      </c>
+      <c r="N25">
+        <v>12.5</v>
+      </c>
+      <c r="O25">
+        <v>12.29</v>
+      </c>
+      <c r="P25">
+        <v>12.08</v>
+      </c>
+      <c r="Q25">
+        <v>11.88</v>
+      </c>
+      <c r="R25">
+        <v>11.67</v>
+      </c>
+      <c r="S25">
+        <v>11.46</v>
+      </c>
+      <c r="T25">
+        <v>11.25</v>
+      </c>
+      <c r="U25">
+        <v>11.04</v>
+      </c>
+      <c r="V25">
+        <v>10.83</v>
+      </c>
+      <c r="W25">
+        <v>10.62</v>
+      </c>
+      <c r="X25">
+        <v>10.42</v>
+      </c>
+      <c r="Y25">
+        <v>10.210000000000001</v>
+      </c>
+      <c r="Z25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26">
+        <v>15</v>
+      </c>
+      <c r="C26">
+        <v>14.79</v>
+      </c>
+      <c r="D26">
+        <v>14.58</v>
+      </c>
+      <c r="E26">
+        <v>14.38</v>
+      </c>
+      <c r="F26">
+        <v>14.17</v>
+      </c>
+      <c r="G26">
+        <v>13.96</v>
+      </c>
+      <c r="H26">
+        <v>13.75</v>
+      </c>
+      <c r="I26">
+        <v>13.54</v>
+      </c>
+      <c r="J26">
+        <v>13.33</v>
+      </c>
+      <c r="K26">
+        <v>13.12</v>
+      </c>
+      <c r="L26">
+        <v>12.92</v>
+      </c>
+      <c r="M26">
+        <v>12.71</v>
+      </c>
+      <c r="N26">
+        <v>12.5</v>
+      </c>
+      <c r="O26">
+        <v>12.29</v>
+      </c>
+      <c r="P26">
+        <v>12.08</v>
+      </c>
+      <c r="Q26">
+        <v>11.88</v>
+      </c>
+      <c r="R26">
+        <v>11.67</v>
+      </c>
+      <c r="S26">
+        <v>11.46</v>
+      </c>
+      <c r="T26">
+        <v>11.25</v>
+      </c>
+      <c r="U26">
+        <v>11.04</v>
+      </c>
+      <c r="V26">
+        <v>10.83</v>
+      </c>
+      <c r="W26">
+        <v>10.62</v>
+      </c>
+      <c r="X26">
+        <v>10.42</v>
+      </c>
+      <c r="Y26">
+        <v>10.210000000000001</v>
+      </c>
+      <c r="Z26">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02102A28-ADE4-4B57-A33A-8C40FACBC5C8}">
+  <dimension ref="A2:Z27"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:Z27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>2</v>
+      </c>
+      <c r="D2">
+        <v>3</v>
+      </c>
+      <c r="E2">
+        <v>4</v>
+      </c>
+      <c r="F2">
+        <v>5</v>
+      </c>
+      <c r="G2">
+        <v>6</v>
+      </c>
+      <c r="H2">
+        <v>7</v>
+      </c>
+      <c r="I2">
+        <v>8</v>
+      </c>
+      <c r="J2">
+        <v>9</v>
+      </c>
+      <c r="K2">
+        <v>10</v>
+      </c>
+      <c r="L2">
+        <v>11</v>
+      </c>
+      <c r="M2">
+        <v>12</v>
+      </c>
+      <c r="N2">
+        <v>13</v>
+      </c>
+      <c r="O2">
+        <v>14</v>
+      </c>
+      <c r="P2">
+        <v>15</v>
+      </c>
+      <c r="Q2">
+        <v>16</v>
+      </c>
+      <c r="R2">
+        <v>17</v>
+      </c>
+      <c r="S2">
+        <v>18</v>
+      </c>
+      <c r="T2">
+        <v>19</v>
+      </c>
+      <c r="U2">
+        <v>20</v>
+      </c>
+      <c r="V2">
+        <v>21</v>
+      </c>
+      <c r="W2">
+        <v>22</v>
+      </c>
+      <c r="X2">
+        <v>23</v>
+      </c>
+      <c r="Y2">
+        <v>24</v>
+      </c>
+      <c r="Z2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>15</v>
+      </c>
+      <c r="C3">
+        <v>14.79</v>
+      </c>
+      <c r="D3">
+        <v>14.58</v>
+      </c>
+      <c r="E3">
+        <v>14.37</v>
+      </c>
+      <c r="F3">
+        <v>14.16</v>
+      </c>
+      <c r="G3">
+        <v>13.95</v>
+      </c>
+      <c r="H3">
+        <v>13.73</v>
+      </c>
+      <c r="I3">
+        <v>13.52</v>
+      </c>
+      <c r="J3">
+        <v>13.3</v>
+      </c>
+      <c r="K3">
+        <v>13.08</v>
+      </c>
+      <c r="L3">
+        <v>12.87</v>
+      </c>
+      <c r="M3">
+        <v>12.65</v>
+      </c>
+      <c r="N3">
+        <v>12.43</v>
+      </c>
+      <c r="O3">
+        <v>12.22</v>
+      </c>
+      <c r="P3">
+        <v>12</v>
+      </c>
+      <c r="Q3">
+        <v>11.79</v>
+      </c>
+      <c r="R3">
+        <v>11.59</v>
+      </c>
+      <c r="S3">
+        <v>11.38</v>
+      </c>
+      <c r="T3">
+        <v>11.18</v>
+      </c>
+      <c r="U3">
+        <v>10.98</v>
+      </c>
+      <c r="V3">
+        <v>10.78</v>
+      </c>
+      <c r="W3">
+        <v>10.58</v>
+      </c>
+      <c r="X3">
+        <v>10.39</v>
+      </c>
+      <c r="Y3">
+        <v>10.19</v>
+      </c>
+      <c r="Z3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>15</v>
+      </c>
+      <c r="C4">
+        <v>14.79</v>
+      </c>
+      <c r="D4">
+        <v>14.59</v>
+      </c>
+      <c r="E4">
+        <v>14.38</v>
+      </c>
+      <c r="F4">
+        <v>14.17</v>
+      </c>
+      <c r="G4">
+        <v>13.96</v>
+      </c>
+      <c r="H4">
+        <v>13.74</v>
+      </c>
+      <c r="I4">
+        <v>13.53</v>
+      </c>
+      <c r="J4">
+        <v>13.31</v>
+      </c>
+      <c r="K4">
+        <v>13.08</v>
+      </c>
+      <c r="L4">
+        <v>12.86</v>
+      </c>
+      <c r="M4">
+        <v>12.64</v>
+      </c>
+      <c r="N4">
+        <v>12.42</v>
+      </c>
+      <c r="O4">
+        <v>12.2</v>
+      </c>
+      <c r="P4">
+        <v>11.98</v>
+      </c>
+      <c r="Q4">
+        <v>11.77</v>
+      </c>
+      <c r="R4">
+        <v>11.56</v>
+      </c>
+      <c r="S4">
+        <v>11.35</v>
+      </c>
+      <c r="T4">
+        <v>11.15</v>
+      </c>
+      <c r="U4">
+        <v>10.95</v>
+      </c>
+      <c r="V4">
+        <v>10.76</v>
+      </c>
+      <c r="W4">
+        <v>10.57</v>
+      </c>
+      <c r="X4">
+        <v>10.38</v>
+      </c>
+      <c r="Y4">
+        <v>10.19</v>
+      </c>
+      <c r="Z4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>15</v>
+      </c>
+      <c r="C5">
+        <v>14.81</v>
+      </c>
+      <c r="D5">
+        <v>14.61</v>
+      </c>
+      <c r="E5">
+        <v>14.41</v>
+      </c>
+      <c r="F5">
+        <v>14.21</v>
+      </c>
+      <c r="G5">
+        <v>14</v>
+      </c>
+      <c r="H5">
+        <v>13.78</v>
+      </c>
+      <c r="I5">
+        <v>13.56</v>
+      </c>
+      <c r="J5">
+        <v>13.33</v>
+      </c>
+      <c r="K5">
+        <v>13.09</v>
+      </c>
+      <c r="L5">
+        <v>12.86</v>
+      </c>
+      <c r="M5">
+        <v>12.62</v>
+      </c>
+      <c r="N5">
+        <v>12.39</v>
+      </c>
+      <c r="O5">
+        <v>12.16</v>
+      </c>
+      <c r="P5">
+        <v>11.93</v>
+      </c>
+      <c r="Q5">
+        <v>11.71</v>
+      </c>
+      <c r="R5">
+        <v>11.49</v>
+      </c>
+      <c r="S5">
+        <v>11.29</v>
+      </c>
+      <c r="T5">
+        <v>11.09</v>
+      </c>
+      <c r="U5">
+        <v>10.9</v>
+      </c>
+      <c r="V5">
+        <v>10.71</v>
+      </c>
+      <c r="W5">
+        <v>10.53</v>
+      </c>
+      <c r="X5">
+        <v>10.35</v>
+      </c>
+      <c r="Y5">
+        <v>10.18</v>
+      </c>
+      <c r="Z5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>15</v>
+      </c>
+      <c r="C6">
+        <v>14.83</v>
+      </c>
+      <c r="D6">
+        <v>14.67</v>
+      </c>
+      <c r="E6">
+        <v>14.49</v>
+      </c>
+      <c r="F6">
+        <v>14.31</v>
+      </c>
+      <c r="G6">
+        <v>14.11</v>
+      </c>
+      <c r="H6">
+        <v>13.89</v>
+      </c>
+      <c r="I6">
+        <v>13.63</v>
+      </c>
+      <c r="J6">
+        <v>13.38</v>
+      </c>
+      <c r="K6">
+        <v>13.12</v>
+      </c>
+      <c r="L6">
+        <v>12.86</v>
+      </c>
+      <c r="M6">
+        <v>12.6</v>
+      </c>
+      <c r="N6">
+        <v>12.34</v>
+      </c>
+      <c r="O6">
+        <v>12.08</v>
+      </c>
+      <c r="P6">
+        <v>11.82</v>
+      </c>
+      <c r="Q6">
+        <v>11.56</v>
+      </c>
+      <c r="R6">
+        <v>11.33</v>
+      </c>
+      <c r="S6">
+        <v>11.14</v>
+      </c>
+      <c r="T6">
+        <v>10.96</v>
+      </c>
+      <c r="U6">
+        <v>10.79</v>
+      </c>
+      <c r="V6">
+        <v>10.62</v>
+      </c>
+      <c r="W6">
+        <v>10.46</v>
+      </c>
+      <c r="X6">
+        <v>10.31</v>
+      </c>
+      <c r="Y6">
+        <v>10.15</v>
+      </c>
+      <c r="Z6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>15</v>
+      </c>
+      <c r="C7">
+        <v>14.88</v>
+      </c>
+      <c r="D7">
+        <v>14.77</v>
+      </c>
+      <c r="E7">
+        <v>14.66</v>
+      </c>
+      <c r="F7">
+        <v>14.55</v>
+      </c>
+      <c r="G7">
+        <v>14.46</v>
+      </c>
+      <c r="H7">
+        <v>14.38</v>
+      </c>
+      <c r="I7">
+        <v>14.11</v>
+      </c>
+      <c r="J7">
+        <v>13.67</v>
+      </c>
+      <c r="K7">
+        <v>13.27</v>
+      </c>
+      <c r="L7">
+        <v>12.89</v>
+      </c>
+      <c r="M7">
+        <v>12.52</v>
+      </c>
+      <c r="N7">
+        <v>12.13</v>
+      </c>
+      <c r="O7">
+        <v>11.73</v>
+      </c>
+      <c r="P7">
+        <v>11.28</v>
+      </c>
+      <c r="Q7">
+        <v>11</v>
+      </c>
+      <c r="R7">
+        <v>10.92</v>
+      </c>
+      <c r="S7">
+        <v>10.82</v>
+      </c>
+      <c r="T7">
+        <v>10.72</v>
+      </c>
+      <c r="U7">
+        <v>10.6</v>
+      </c>
+      <c r="V7">
+        <v>10.49</v>
+      </c>
+      <c r="W7">
+        <v>10.37</v>
+      </c>
+      <c r="X7">
+        <v>10.25</v>
+      </c>
+      <c r="Y7">
+        <v>10.119999999999999</v>
+      </c>
+      <c r="Z7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>15</v>
+      </c>
+      <c r="C8">
+        <v>14.92</v>
+      </c>
+      <c r="D8">
+        <v>14.84</v>
+      </c>
+      <c r="E8">
+        <v>14.76</v>
+      </c>
+      <c r="F8">
+        <v>14.69</v>
+      </c>
+      <c r="G8">
+        <v>14.63</v>
+      </c>
+      <c r="H8">
+        <v>14.57</v>
+      </c>
+      <c r="I8">
+        <v>14.3</v>
+      </c>
+      <c r="J8">
+        <v>13.83</v>
+      </c>
+      <c r="K8">
+        <v>13.36</v>
+      </c>
+      <c r="L8">
+        <v>12.9</v>
+      </c>
+      <c r="M8">
+        <v>12.44</v>
+      </c>
+      <c r="N8">
+        <v>11.97</v>
+      </c>
+      <c r="O8">
+        <v>11.5</v>
+      </c>
+      <c r="P8">
+        <v>11.02</v>
+      </c>
+      <c r="Q8">
+        <v>10.75</v>
+      </c>
+      <c r="R8">
+        <v>10.69</v>
+      </c>
+      <c r="S8">
+        <v>10.62</v>
+      </c>
+      <c r="T8">
+        <v>10.55</v>
+      </c>
+      <c r="U8">
+        <v>10.46</v>
+      </c>
+      <c r="V8">
+        <v>10.38</v>
+      </c>
+      <c r="W8">
+        <v>10.29</v>
+      </c>
+      <c r="X8">
+        <v>10.19</v>
+      </c>
+      <c r="Y8">
+        <v>10.1</v>
+      </c>
+      <c r="Z8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>15</v>
+      </c>
+      <c r="C9">
+        <v>14.94</v>
+      </c>
+      <c r="D9">
+        <v>14.87</v>
+      </c>
+      <c r="E9">
+        <v>14.81</v>
+      </c>
+      <c r="F9">
+        <v>14.76</v>
+      </c>
+      <c r="G9">
+        <v>14.7</v>
+      </c>
+      <c r="H9">
+        <v>14.65</v>
+      </c>
+      <c r="I9">
+        <v>14.38</v>
+      </c>
+      <c r="J9">
+        <v>13.88</v>
+      </c>
+      <c r="K9">
+        <v>13.38</v>
+      </c>
+      <c r="L9">
+        <v>12.89</v>
+      </c>
+      <c r="M9">
+        <v>12.39</v>
+      </c>
+      <c r="N9">
+        <v>11.9</v>
+      </c>
+      <c r="O9">
+        <v>11.4</v>
+      </c>
+      <c r="P9">
+        <v>10.89</v>
+      </c>
+      <c r="Q9">
+        <v>10.61</v>
+      </c>
+      <c r="R9">
+        <v>10.56</v>
+      </c>
+      <c r="S9">
+        <v>10.51</v>
+      </c>
+      <c r="T9">
+        <v>10.44</v>
+      </c>
+      <c r="U9">
+        <v>10.38</v>
+      </c>
+      <c r="V9">
+        <v>10.3</v>
+      </c>
+      <c r="W9">
+        <v>10.23</v>
+      </c>
+      <c r="X9">
+        <v>10.16</v>
+      </c>
+      <c r="Y9">
+        <v>10.08</v>
+      </c>
+      <c r="Z9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>15</v>
+      </c>
+      <c r="C10">
+        <v>14.95</v>
+      </c>
+      <c r="D10">
+        <v>14.89</v>
+      </c>
+      <c r="E10">
+        <v>14.84</v>
+      </c>
+      <c r="F10">
+        <v>14.79</v>
+      </c>
+      <c r="G10">
+        <v>14.74</v>
+      </c>
+      <c r="H10">
+        <v>14.69</v>
+      </c>
+      <c r="I10">
+        <v>14.41</v>
+      </c>
+      <c r="J10">
+        <v>13.9</v>
+      </c>
+      <c r="K10">
+        <v>13.39</v>
+      </c>
+      <c r="L10">
+        <v>12.88</v>
+      </c>
+      <c r="M10">
+        <v>12.37</v>
+      </c>
+      <c r="N10">
+        <v>11.85</v>
+      </c>
+      <c r="O10">
+        <v>11.34</v>
+      </c>
+      <c r="P10">
+        <v>10.83</v>
+      </c>
+      <c r="Q10">
+        <v>10.54</v>
+      </c>
+      <c r="R10">
+        <v>10.49</v>
+      </c>
+      <c r="S10">
+        <v>10.44</v>
+      </c>
+      <c r="T10">
+        <v>10.38</v>
+      </c>
+      <c r="U10">
+        <v>10.32</v>
+      </c>
+      <c r="V10">
+        <v>10.26</v>
+      </c>
+      <c r="W10">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="X10">
+        <v>10.130000000000001</v>
+      </c>
+      <c r="Y10">
+        <v>10.07</v>
+      </c>
+      <c r="Z10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>15</v>
+      </c>
+      <c r="C11">
+        <v>14.95</v>
+      </c>
+      <c r="D11">
+        <v>14.9</v>
+      </c>
+      <c r="E11">
+        <v>14.85</v>
+      </c>
+      <c r="F11">
+        <v>14.8</v>
+      </c>
+      <c r="G11">
+        <v>14.75</v>
+      </c>
+      <c r="H11">
+        <v>14.7</v>
+      </c>
+      <c r="I11">
+        <v>14.42</v>
+      </c>
+      <c r="J11">
+        <v>13.9</v>
+      </c>
+      <c r="K11">
+        <v>13.39</v>
+      </c>
+      <c r="L11">
+        <v>12.87</v>
+      </c>
+      <c r="M11">
+        <v>12.35</v>
+      </c>
+      <c r="N11">
+        <v>11.83</v>
+      </c>
+      <c r="O11">
+        <v>11.31</v>
+      </c>
+      <c r="P11">
+        <v>10.79</v>
+      </c>
+      <c r="Q11">
+        <v>10.5</v>
+      </c>
+      <c r="R11">
+        <v>10.45</v>
+      </c>
+      <c r="S11">
+        <v>10.4</v>
+      </c>
+      <c r="T11">
+        <v>10.35</v>
+      </c>
+      <c r="U11">
+        <v>10.29</v>
+      </c>
+      <c r="V11">
+        <v>10.24</v>
+      </c>
+      <c r="W11">
+        <v>10.18</v>
+      </c>
+      <c r="X11">
+        <v>10.119999999999999</v>
+      </c>
+      <c r="Y11">
+        <v>10.06</v>
+      </c>
+      <c r="Z11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>15</v>
+      </c>
+      <c r="C12">
+        <v>14.95</v>
+      </c>
+      <c r="D12">
+        <v>14.9</v>
+      </c>
+      <c r="E12">
+        <v>14.85</v>
+      </c>
+      <c r="F12">
+        <v>14.8</v>
+      </c>
+      <c r="G12">
+        <v>14.76</v>
+      </c>
+      <c r="H12">
+        <v>14.71</v>
+      </c>
+      <c r="I12">
+        <v>14.42</v>
+      </c>
+      <c r="J12">
+        <v>13.9</v>
+      </c>
+      <c r="K12">
+        <v>13.38</v>
+      </c>
+      <c r="L12">
+        <v>12.86</v>
+      </c>
+      <c r="M12">
+        <v>12.34</v>
+      </c>
+      <c r="N12">
+        <v>11.82</v>
+      </c>
+      <c r="O12">
+        <v>11.3</v>
+      </c>
+      <c r="P12">
+        <v>10.77</v>
+      </c>
+      <c r="Q12">
+        <v>10.49</v>
+      </c>
+      <c r="R12">
+        <v>10.44</v>
+      </c>
+      <c r="S12">
+        <v>10.39</v>
+      </c>
+      <c r="T12">
+        <v>10.34</v>
+      </c>
+      <c r="U12">
+        <v>10.28</v>
+      </c>
+      <c r="V12">
+        <v>10.23</v>
+      </c>
+      <c r="W12">
+        <v>10.17</v>
+      </c>
+      <c r="X12">
+        <v>10.11</v>
+      </c>
+      <c r="Y12">
+        <v>10.06</v>
+      </c>
+      <c r="Z12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>15</v>
+      </c>
+      <c r="C13">
+        <v>14.95</v>
+      </c>
+      <c r="D13">
+        <v>14.9</v>
+      </c>
+      <c r="E13">
+        <v>14.85</v>
+      </c>
+      <c r="F13">
+        <v>14.8</v>
+      </c>
+      <c r="G13">
+        <v>14.76</v>
+      </c>
+      <c r="H13">
+        <v>14.71</v>
+      </c>
+      <c r="I13">
+        <v>14.42</v>
+      </c>
+      <c r="J13">
+        <v>13.9</v>
+      </c>
+      <c r="K13">
+        <v>13.38</v>
+      </c>
+      <c r="L13">
+        <v>12.86</v>
+      </c>
+      <c r="M13">
+        <v>12.34</v>
+      </c>
+      <c r="N13">
+        <v>11.82</v>
+      </c>
+      <c r="O13">
+        <v>11.3</v>
+      </c>
+      <c r="P13">
+        <v>10.77</v>
+      </c>
+      <c r="Q13">
+        <v>10.49</v>
+      </c>
+      <c r="R13">
+        <v>10.44</v>
+      </c>
+      <c r="S13">
+        <v>10.39</v>
+      </c>
+      <c r="T13">
+        <v>10.34</v>
+      </c>
+      <c r="U13">
+        <v>10.28</v>
+      </c>
+      <c r="V13">
+        <v>10.23</v>
+      </c>
+      <c r="W13">
+        <v>10.17</v>
+      </c>
+      <c r="X13">
+        <v>10.11</v>
+      </c>
+      <c r="Y13">
+        <v>10.06</v>
+      </c>
+      <c r="Z13">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>15</v>
+      </c>
+      <c r="C14">
+        <v>14.95</v>
+      </c>
+      <c r="D14">
+        <v>14.9</v>
+      </c>
+      <c r="E14">
+        <v>14.85</v>
+      </c>
+      <c r="F14">
+        <v>14.8</v>
+      </c>
+      <c r="G14">
+        <v>14.75</v>
+      </c>
+      <c r="H14">
+        <v>14.7</v>
+      </c>
+      <c r="I14">
+        <v>14.42</v>
+      </c>
+      <c r="J14">
+        <v>13.9</v>
+      </c>
+      <c r="K14">
+        <v>13.39</v>
+      </c>
+      <c r="L14">
+        <v>12.87</v>
+      </c>
+      <c r="M14">
+        <v>12.35</v>
+      </c>
+      <c r="N14">
+        <v>11.83</v>
+      </c>
+      <c r="O14">
+        <v>11.31</v>
+      </c>
+      <c r="P14">
+        <v>10.79</v>
+      </c>
+      <c r="Q14">
+        <v>10.5</v>
+      </c>
+      <c r="R14">
+        <v>10.46</v>
+      </c>
+      <c r="S14">
+        <v>10.4</v>
+      </c>
+      <c r="T14">
+        <v>10.35</v>
+      </c>
+      <c r="U14">
+        <v>10.29</v>
+      </c>
+      <c r="V14">
+        <v>10.24</v>
+      </c>
+      <c r="W14">
+        <v>10.18</v>
+      </c>
+      <c r="X14">
+        <v>10.119999999999999</v>
+      </c>
+      <c r="Y14">
+        <v>10.06</v>
+      </c>
+      <c r="Z14">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <v>15</v>
+      </c>
+      <c r="C15">
+        <v>14.95</v>
+      </c>
+      <c r="D15">
+        <v>14.89</v>
+      </c>
+      <c r="E15">
+        <v>14.84</v>
+      </c>
+      <c r="F15">
+        <v>14.79</v>
+      </c>
+      <c r="G15">
+        <v>14.74</v>
+      </c>
+      <c r="H15">
+        <v>14.69</v>
+      </c>
+      <c r="I15">
+        <v>14.41</v>
+      </c>
+      <c r="J15">
+        <v>13.9</v>
+      </c>
+      <c r="K15">
+        <v>13.39</v>
+      </c>
+      <c r="L15">
+        <v>12.88</v>
+      </c>
+      <c r="M15">
+        <v>12.37</v>
+      </c>
+      <c r="N15">
+        <v>11.86</v>
+      </c>
+      <c r="O15">
+        <v>11.34</v>
+      </c>
+      <c r="P15">
+        <v>10.83</v>
+      </c>
+      <c r="Q15">
+        <v>10.54</v>
+      </c>
+      <c r="R15">
+        <v>10.49</v>
+      </c>
+      <c r="S15">
+        <v>10.44</v>
+      </c>
+      <c r="T15">
+        <v>10.38</v>
+      </c>
+      <c r="U15">
+        <v>10.32</v>
+      </c>
+      <c r="V15">
+        <v>10.26</v>
+      </c>
+      <c r="W15">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="X15">
+        <v>10.130000000000001</v>
+      </c>
+      <c r="Y15">
+        <v>10.07</v>
+      </c>
+      <c r="Z15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16">
+        <v>15</v>
+      </c>
+      <c r="C16">
+        <v>14.94</v>
+      </c>
+      <c r="D16">
+        <v>14.87</v>
+      </c>
+      <c r="E16">
+        <v>14.81</v>
+      </c>
+      <c r="F16">
+        <v>14.76</v>
+      </c>
+      <c r="G16">
+        <v>14.7</v>
+      </c>
+      <c r="H16">
+        <v>14.65</v>
+      </c>
+      <c r="I16">
+        <v>14.38</v>
+      </c>
+      <c r="J16">
+        <v>13.88</v>
+      </c>
+      <c r="K16">
+        <v>13.38</v>
+      </c>
+      <c r="L16">
+        <v>12.89</v>
+      </c>
+      <c r="M16">
+        <v>12.39</v>
+      </c>
+      <c r="N16">
+        <v>11.9</v>
+      </c>
+      <c r="O16">
+        <v>11.4</v>
+      </c>
+      <c r="P16">
+        <v>10.89</v>
+      </c>
+      <c r="Q16">
+        <v>10.62</v>
+      </c>
+      <c r="R16">
+        <v>10.56</v>
+      </c>
+      <c r="S16">
+        <v>10.51</v>
+      </c>
+      <c r="T16">
+        <v>10.44</v>
+      </c>
+      <c r="U16">
+        <v>10.38</v>
+      </c>
+      <c r="V16">
+        <v>10.31</v>
+      </c>
+      <c r="W16">
+        <v>10.23</v>
+      </c>
+      <c r="X16">
+        <v>10.16</v>
+      </c>
+      <c r="Y16">
+        <v>10.08</v>
+      </c>
+      <c r="Z16">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="B17">
+        <v>15</v>
+      </c>
+      <c r="C17">
+        <v>14.92</v>
+      </c>
+      <c r="D17">
+        <v>14.84</v>
+      </c>
+      <c r="E17">
+        <v>14.76</v>
+      </c>
+      <c r="F17">
+        <v>14.69</v>
+      </c>
+      <c r="G17">
+        <v>14.63</v>
+      </c>
+      <c r="H17">
+        <v>14.57</v>
+      </c>
+      <c r="I17">
+        <v>14.31</v>
+      </c>
+      <c r="J17">
+        <v>13.83</v>
+      </c>
+      <c r="K17">
+        <v>13.36</v>
+      </c>
+      <c r="L17">
+        <v>12.9</v>
+      </c>
+      <c r="M17">
+        <v>12.44</v>
+      </c>
+      <c r="N17">
+        <v>11.98</v>
+      </c>
+      <c r="O17">
+        <v>11.51</v>
+      </c>
+      <c r="P17">
+        <v>11.02</v>
+      </c>
+      <c r="Q17">
+        <v>10.75</v>
+      </c>
+      <c r="R17">
+        <v>10.69</v>
+      </c>
+      <c r="S17">
+        <v>10.63</v>
+      </c>
+      <c r="T17">
+        <v>10.55</v>
+      </c>
+      <c r="U17">
+        <v>10.47</v>
+      </c>
+      <c r="V17">
+        <v>10.38</v>
+      </c>
+      <c r="W17">
+        <v>10.29</v>
+      </c>
+      <c r="X17">
+        <v>10.19</v>
+      </c>
+      <c r="Y17">
+        <v>10.1</v>
+      </c>
+      <c r="Z17">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>16</v>
+      </c>
+      <c r="B18">
+        <v>15</v>
+      </c>
+      <c r="C18">
+        <v>14.88</v>
+      </c>
+      <c r="D18">
+        <v>14.77</v>
+      </c>
+      <c r="E18">
+        <v>14.66</v>
+      </c>
+      <c r="F18">
+        <v>14.56</v>
+      </c>
+      <c r="G18">
+        <v>14.46</v>
+      </c>
+      <c r="H18">
+        <v>14.39</v>
+      </c>
+      <c r="I18">
+        <v>14.11</v>
+      </c>
+      <c r="J18">
+        <v>13.68</v>
+      </c>
+      <c r="K18">
+        <v>13.28</v>
+      </c>
+      <c r="L18">
+        <v>12.9</v>
+      </c>
+      <c r="M18">
+        <v>12.52</v>
+      </c>
+      <c r="N18">
+        <v>12.14</v>
+      </c>
+      <c r="O18">
+        <v>11.73</v>
+      </c>
+      <c r="P18">
+        <v>11.29</v>
+      </c>
+      <c r="Q18">
+        <v>11</v>
+      </c>
+      <c r="R18">
+        <v>10.93</v>
+      </c>
+      <c r="S18">
+        <v>10.83</v>
+      </c>
+      <c r="T18">
+        <v>10.72</v>
+      </c>
+      <c r="U18">
+        <v>10.61</v>
+      </c>
+      <c r="V18">
+        <v>10.49</v>
+      </c>
+      <c r="W18">
+        <v>10.37</v>
+      </c>
+      <c r="X18">
+        <v>10.25</v>
+      </c>
+      <c r="Y18">
+        <v>10.119999999999999</v>
+      </c>
+      <c r="Z18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>17</v>
+      </c>
+      <c r="B19">
+        <v>15</v>
+      </c>
+      <c r="C19">
+        <v>14.83</v>
+      </c>
+      <c r="D19">
+        <v>14.67</v>
+      </c>
+      <c r="E19">
+        <v>14.49</v>
+      </c>
+      <c r="F19">
+        <v>14.31</v>
+      </c>
+      <c r="G19">
+        <v>14.12</v>
+      </c>
+      <c r="H19">
+        <v>13.9</v>
+      </c>
+      <c r="I19">
+        <v>13.64</v>
+      </c>
+      <c r="J19">
+        <v>13.38</v>
+      </c>
+      <c r="K19">
+        <v>13.13</v>
+      </c>
+      <c r="L19">
+        <v>12.87</v>
+      </c>
+      <c r="M19">
+        <v>12.61</v>
+      </c>
+      <c r="N19">
+        <v>12.35</v>
+      </c>
+      <c r="O19">
+        <v>12.09</v>
+      </c>
+      <c r="P19">
+        <v>11.83</v>
+      </c>
+      <c r="Q19">
+        <v>11.57</v>
+      </c>
+      <c r="R19">
+        <v>11.34</v>
+      </c>
+      <c r="S19">
+        <v>11.14</v>
+      </c>
+      <c r="T19">
+        <v>10.96</v>
+      </c>
+      <c r="U19">
+        <v>10.79</v>
+      </c>
+      <c r="V19">
+        <v>10.63</v>
+      </c>
+      <c r="W19">
+        <v>10.47</v>
+      </c>
+      <c r="X19">
+        <v>10.31</v>
+      </c>
+      <c r="Y19">
+        <v>10.15</v>
+      </c>
+      <c r="Z19">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>18</v>
+      </c>
+      <c r="B20">
+        <v>15</v>
+      </c>
+      <c r="C20">
+        <v>14.81</v>
+      </c>
+      <c r="D20">
+        <v>14.61</v>
+      </c>
+      <c r="E20">
+        <v>14.42</v>
+      </c>
+      <c r="F20">
+        <v>14.21</v>
+      </c>
+      <c r="G20">
+        <v>14</v>
+      </c>
+      <c r="H20">
+        <v>13.79</v>
+      </c>
+      <c r="I20">
+        <v>13.56</v>
+      </c>
+      <c r="J20">
+        <v>13.34</v>
+      </c>
+      <c r="K20">
+        <v>13.1</v>
+      </c>
+      <c r="L20">
+        <v>12.87</v>
+      </c>
+      <c r="M20">
+        <v>12.64</v>
+      </c>
+      <c r="N20">
+        <v>12.4</v>
+      </c>
+      <c r="O20">
+        <v>12.17</v>
+      </c>
+      <c r="P20">
+        <v>11.94</v>
+      </c>
+      <c r="Q20">
+        <v>11.72</v>
+      </c>
+      <c r="R20">
+        <v>11.5</v>
+      </c>
+      <c r="S20">
+        <v>11.3</v>
+      </c>
+      <c r="T20">
+        <v>11.1</v>
+      </c>
+      <c r="U20">
+        <v>10.91</v>
+      </c>
+      <c r="V20">
+        <v>10.72</v>
+      </c>
+      <c r="W20">
+        <v>10.54</v>
+      </c>
+      <c r="X20">
+        <v>10.36</v>
+      </c>
+      <c r="Y20">
+        <v>10.18</v>
+      </c>
+      <c r="Z20">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="B21">
+        <v>15</v>
+      </c>
+      <c r="C21">
+        <v>14.8</v>
+      </c>
+      <c r="D21">
+        <v>14.59</v>
+      </c>
+      <c r="E21">
+        <v>14.38</v>
+      </c>
+      <c r="F21">
+        <v>14.18</v>
+      </c>
+      <c r="G21">
+        <v>13.97</v>
+      </c>
+      <c r="H21">
+        <v>13.75</v>
+      </c>
+      <c r="I21">
+        <v>13.54</v>
+      </c>
+      <c r="J21">
+        <v>13.32</v>
+      </c>
+      <c r="K21">
+        <v>13.1</v>
+      </c>
+      <c r="L21">
+        <v>12.88</v>
+      </c>
+      <c r="M21">
+        <v>12.66</v>
+      </c>
+      <c r="N21">
+        <v>12.44</v>
+      </c>
+      <c r="O21">
+        <v>12.22</v>
+      </c>
+      <c r="P21">
+        <v>12</v>
+      </c>
+      <c r="Q21">
+        <v>11.79</v>
+      </c>
+      <c r="R21">
+        <v>11.58</v>
+      </c>
+      <c r="S21">
+        <v>11.37</v>
+      </c>
+      <c r="T21">
+        <v>11.17</v>
+      </c>
+      <c r="U21">
+        <v>10.97</v>
+      </c>
+      <c r="V21">
+        <v>10.77</v>
+      </c>
+      <c r="W21">
+        <v>10.58</v>
+      </c>
+      <c r="X21">
+        <v>10.38</v>
+      </c>
+      <c r="Y21">
+        <v>10.19</v>
+      </c>
+      <c r="Z21">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>20</v>
+      </c>
+      <c r="B22">
+        <v>15</v>
+      </c>
+      <c r="C22">
+        <v>14.79</v>
+      </c>
+      <c r="D22">
+        <v>14.58</v>
+      </c>
+      <c r="E22">
+        <v>14.37</v>
+      </c>
+      <c r="F22">
+        <v>14.16</v>
+      </c>
+      <c r="G22">
+        <v>13.95</v>
+      </c>
+      <c r="H22">
+        <v>13.74</v>
+      </c>
+      <c r="I22">
+        <v>13.53</v>
+      </c>
+      <c r="J22">
+        <v>13.32</v>
+      </c>
+      <c r="K22">
+        <v>13.1</v>
+      </c>
+      <c r="L22">
+        <v>12.89</v>
+      </c>
+      <c r="M22">
+        <v>12.67</v>
+      </c>
+      <c r="N22">
+        <v>12.46</v>
+      </c>
+      <c r="O22">
+        <v>12.25</v>
+      </c>
+      <c r="P22">
+        <v>12.03</v>
+      </c>
+      <c r="Q22">
+        <v>11.82</v>
+      </c>
+      <c r="R22">
+        <v>11.62</v>
+      </c>
+      <c r="S22">
+        <v>11.41</v>
+      </c>
+      <c r="T22">
+        <v>11.2</v>
+      </c>
+      <c r="U22">
+        <v>11</v>
+      </c>
+      <c r="V22">
+        <v>10.8</v>
+      </c>
+      <c r="W22">
+        <v>10.6</v>
+      </c>
+      <c r="X22">
+        <v>10.4</v>
+      </c>
+      <c r="Y22">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="Z22">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>21</v>
+      </c>
+      <c r="B23">
+        <v>15</v>
+      </c>
+      <c r="C23">
+        <v>14.79</v>
+      </c>
+      <c r="D23">
+        <v>14.58</v>
+      </c>
+      <c r="E23">
+        <v>14.37</v>
+      </c>
+      <c r="F23">
+        <v>14.16</v>
+      </c>
+      <c r="G23">
+        <v>13.95</v>
+      </c>
+      <c r="H23">
+        <v>13.74</v>
+      </c>
+      <c r="I23">
+        <v>13.53</v>
+      </c>
+      <c r="J23">
+        <v>13.32</v>
+      </c>
+      <c r="K23">
+        <v>13.11</v>
+      </c>
+      <c r="L23">
+        <v>12.89</v>
+      </c>
+      <c r="M23">
+        <v>12.68</v>
+      </c>
+      <c r="N23">
+        <v>12.47</v>
+      </c>
+      <c r="O23">
+        <v>12.26</v>
+      </c>
+      <c r="P23">
+        <v>12.05</v>
+      </c>
+      <c r="Q23">
+        <v>11.84</v>
+      </c>
+      <c r="R23">
+        <v>11.64</v>
+      </c>
+      <c r="S23">
+        <v>11.43</v>
+      </c>
+      <c r="T23">
+        <v>11.22</v>
+      </c>
+      <c r="U23">
+        <v>11.02</v>
+      </c>
+      <c r="V23">
+        <v>10.81</v>
+      </c>
+      <c r="W23">
+        <v>10.61</v>
+      </c>
+      <c r="X23">
+        <v>10.41</v>
+      </c>
+      <c r="Y23">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="Z23">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>22</v>
+      </c>
+      <c r="B24">
+        <v>15</v>
+      </c>
+      <c r="C24">
+        <v>14.79</v>
+      </c>
+      <c r="D24">
+        <v>14.58</v>
+      </c>
+      <c r="E24">
+        <v>14.37</v>
+      </c>
+      <c r="F24">
+        <v>14.16</v>
+      </c>
+      <c r="G24">
+        <v>13.95</v>
+      </c>
+      <c r="H24">
+        <v>13.74</v>
+      </c>
+      <c r="I24">
+        <v>13.53</v>
+      </c>
+      <c r="J24">
+        <v>13.32</v>
+      </c>
+      <c r="K24">
+        <v>13.11</v>
+      </c>
+      <c r="L24">
+        <v>12.9</v>
+      </c>
+      <c r="M24">
+        <v>12.69</v>
+      </c>
+      <c r="N24">
+        <v>12.48</v>
+      </c>
+      <c r="O24">
+        <v>12.27</v>
+      </c>
+      <c r="P24">
+        <v>12.06</v>
+      </c>
+      <c r="Q24">
+        <v>11.86</v>
+      </c>
+      <c r="R24">
+        <v>11.65</v>
+      </c>
+      <c r="S24">
+        <v>11.44</v>
+      </c>
+      <c r="T24">
+        <v>11.23</v>
+      </c>
+      <c r="U24">
+        <v>11.03</v>
+      </c>
+      <c r="V24">
+        <v>10.82</v>
+      </c>
+      <c r="W24">
+        <v>10.62</v>
+      </c>
+      <c r="X24">
+        <v>10.41</v>
+      </c>
+      <c r="Y24">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="Z24">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>23</v>
+      </c>
+      <c r="B25">
+        <v>15</v>
+      </c>
+      <c r="C25">
+        <v>14.79</v>
+      </c>
+      <c r="D25">
+        <v>14.58</v>
+      </c>
+      <c r="E25">
+        <v>14.37</v>
+      </c>
+      <c r="F25">
+        <v>14.16</v>
+      </c>
+      <c r="G25">
+        <v>13.95</v>
+      </c>
+      <c r="H25">
+        <v>13.74</v>
+      </c>
+      <c r="I25">
+        <v>13.53</v>
+      </c>
+      <c r="J25">
+        <v>13.32</v>
+      </c>
+      <c r="K25">
+        <v>13.11</v>
+      </c>
+      <c r="L25">
+        <v>12.9</v>
+      </c>
+      <c r="M25">
+        <v>12.7</v>
+      </c>
+      <c r="N25">
+        <v>12.49</v>
+      </c>
+      <c r="O25">
+        <v>12.28</v>
+      </c>
+      <c r="P25">
+        <v>12.07</v>
+      </c>
+      <c r="Q25">
+        <v>11.86</v>
+      </c>
+      <c r="R25">
+        <v>11.65</v>
+      </c>
+      <c r="S25">
+        <v>11.45</v>
+      </c>
+      <c r="T25">
+        <v>11.24</v>
+      </c>
+      <c r="U25">
+        <v>11.03</v>
+      </c>
+      <c r="V25">
+        <v>10.83</v>
+      </c>
+      <c r="W25">
+        <v>10.62</v>
+      </c>
+      <c r="X25">
+        <v>10.41</v>
+      </c>
+      <c r="Y25">
+        <v>10.210000000000001</v>
+      </c>
+      <c r="Z25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>24</v>
+      </c>
+      <c r="B26">
+        <v>15</v>
+      </c>
+      <c r="C26">
+        <v>14.79</v>
+      </c>
+      <c r="D26">
+        <v>14.58</v>
+      </c>
+      <c r="E26">
+        <v>14.37</v>
+      </c>
+      <c r="F26">
+        <v>14.16</v>
+      </c>
+      <c r="G26">
+        <v>13.95</v>
+      </c>
+      <c r="H26">
+        <v>13.74</v>
+      </c>
+      <c r="I26">
+        <v>13.53</v>
+      </c>
+      <c r="J26">
+        <v>13.33</v>
+      </c>
+      <c r="K26">
+        <v>13.12</v>
+      </c>
+      <c r="L26">
+        <v>12.91</v>
+      </c>
+      <c r="M26">
+        <v>12.7</v>
+      </c>
+      <c r="N26">
+        <v>12.49</v>
+      </c>
+      <c r="O26">
+        <v>12.28</v>
+      </c>
+      <c r="P26">
+        <v>12.07</v>
+      </c>
+      <c r="Q26">
+        <v>11.87</v>
+      </c>
+      <c r="R26">
+        <v>11.66</v>
+      </c>
+      <c r="S26">
+        <v>11.45</v>
+      </c>
+      <c r="T26">
+        <v>11.24</v>
+      </c>
+      <c r="U26">
+        <v>11.03</v>
+      </c>
+      <c r="V26">
+        <v>10.83</v>
+      </c>
+      <c r="W26">
+        <v>10.62</v>
+      </c>
+      <c r="X26">
+        <v>10.41</v>
+      </c>
+      <c r="Y26">
+        <v>10.210000000000001</v>
+      </c>
+      <c r="Z26">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>25</v>
+      </c>
+      <c r="B27">
+        <v>15</v>
+      </c>
+      <c r="C27">
+        <v>14.79</v>
+      </c>
+      <c r="D27">
+        <v>14.58</v>
+      </c>
+      <c r="E27">
+        <v>14.37</v>
+      </c>
+      <c r="F27">
+        <v>14.16</v>
+      </c>
+      <c r="G27">
+        <v>13.95</v>
+      </c>
+      <c r="H27">
+        <v>13.74</v>
+      </c>
+      <c r="I27">
+        <v>13.54</v>
+      </c>
+      <c r="J27">
+        <v>13.33</v>
+      </c>
+      <c r="K27">
+        <v>13.12</v>
+      </c>
+      <c r="L27">
+        <v>12.91</v>
+      </c>
+      <c r="M27">
+        <v>12.7</v>
+      </c>
+      <c r="N27">
+        <v>12.49</v>
+      </c>
+      <c r="O27">
+        <v>12.28</v>
+      </c>
+      <c r="P27">
+        <v>12.07</v>
+      </c>
+      <c r="Q27">
+        <v>11.87</v>
+      </c>
+      <c r="R27">
+        <v>11.66</v>
+      </c>
+      <c r="S27">
+        <v>11.45</v>
+      </c>
+      <c r="T27">
+        <v>11.24</v>
+      </c>
+      <c r="U27">
+        <v>11.04</v>
+      </c>
+      <c r="V27">
+        <v>10.83</v>
+      </c>
+      <c r="W27">
+        <v>10.62</v>
+      </c>
+      <c r="X27">
+        <v>10.41</v>
+      </c>
+      <c r="Y27">
+        <v>10.210000000000001</v>
+      </c>
+      <c r="Z27">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>